--- a/sales-e2e/resources/Reprice_Data/Reference_Price_Test_Data.xlsx
+++ b/sales-e2e/resources/Reprice_Data/Reference_Price_Test_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravipandey/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravipandey/Desktop/Savages Testcafe E2E Test/sales-e2e/sales-e2e/resources/Reprice_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A82D6F-D05D-4E4D-8FEF-B64CED03B3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883FCA81-247E-F946-8F2E-1D0525808D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{7D8B3CEE-CBCB-4847-B6D7-D43D76C10306}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{7D8B3CEE-CBCB-4847-B6D7-D43D76C10306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F67666-74BE-D44C-9572-815CAA621971}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
@@ -1968,11 +1968,8 @@
       <c r="M31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N31">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" ht="26" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2130,7 @@
         <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>20</v>
@@ -2158,7 +2155,7 @@
         <v>20000</v>
       </c>
       <c r="K36" s="2">
-        <v>5746</v>
+        <v>5745.26</v>
       </c>
       <c r="L36" s="2">
         <v>6203287151</v>
@@ -2191,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>1974.0664530069998</v>
+        <v>2091</v>
       </c>
       <c r="J37" s="2">
         <v>6000</v>
@@ -3109,10 +3106,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G60" xr:uid="{2AFBA3A0-0D16-F442-AD0A-55593D4B6729}">
       <formula1>INDIRECT(M2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B60" xr:uid="{F941837D-FEEF-414E-B3E0-E5690C39D502}">
-      <formula1>INDIRECT(A2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B60 A36" xr:uid="{F941837D-FEEF-414E-B3E0-E5690C39D502}">
+      <formula1>INDIRECT(XFD2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A60" xr:uid="{A7CFD096-E964-3D47-915F-AA59B979C89A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A35 A37:A60" xr:uid="{A7CFD096-E964-3D47-915F-AA59B979C89A}">
       <formula1>"AC,AG,CE,CI,EA,EX,IE,PO,SA,TR,UN"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F60" xr:uid="{41B37BBA-310E-C940-8E5B-6ED91AD2487B}">

--- a/sales-e2e/resources/Reprice_Data/Reference_Price_Test_Data.xlsx
+++ b/sales-e2e/resources/Reprice_Data/Reference_Price_Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravipandey/Desktop/Savages Testcafe E2E Test/sales-e2e/sales-e2e/resources/Reprice_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883FCA81-247E-F946-8F2E-1D0525808D41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75BE96A-80CF-A14B-9306-AC1EDE1DCD98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{7D8B3CEE-CBCB-4847-B6D7-D43D76C10306}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="66">
   <si>
     <t>Pricing Zone</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Low - 6 kWh</t>
+  </si>
+  <si>
+    <t>T5I</t>
+  </si>
+  <si>
+    <t>T5I1</t>
+  </si>
+  <si>
+    <t>T5I2</t>
   </si>
 </sst>
 </file>
@@ -732,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F67666-74BE-D44C-9572-815CAA621971}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +752,7 @@
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50" bestFit="1" customWidth="1"/>
@@ -820,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>1419.5773349999999</v>
+        <v>1269.5429999999999</v>
       </c>
       <c r="J2" s="2">
         <v>4000</v>
       </c>
       <c r="K2" s="2">
-        <v>1419.58</v>
+        <v>1269.54</v>
       </c>
       <c r="L2" s="2">
         <v>6102894010</v>
@@ -859,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>5644.3238499999998</v>
+        <v>4783.9345400000002</v>
       </c>
       <c r="J3" s="2">
         <v>20000</v>
       </c>
       <c r="K3" s="2">
-        <v>5822.57</v>
+        <v>4783.93</v>
       </c>
       <c r="L3" s="2">
         <v>6102930803</v>
@@ -898,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1810.3765349999999</v>
+        <v>1595.3410000000003</v>
       </c>
       <c r="J4" s="2">
         <v>6000</v>
       </c>
       <c r="K4" s="2">
-        <v>1810.38</v>
+        <v>1595.34</v>
       </c>
       <c r="L4" s="2">
         <v>6102369155</v>
@@ -937,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>5822.9829900000004</v>
+        <v>4930.998160000001</v>
       </c>
       <c r="J5" s="2">
         <v>20000</v>
       </c>
       <c r="K5" s="2">
-        <v>5823</v>
+        <v>4931</v>
       </c>
       <c r="L5" s="2">
         <v>6102339043</v>
@@ -976,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>5822.9895900000001</v>
+        <v>4930.9906799999999</v>
       </c>
       <c r="J6" s="2">
         <v>20000</v>
       </c>
       <c r="K6" s="2">
-        <v>5823</v>
+        <v>4931</v>
       </c>
       <c r="L6" s="2">
         <v>6102832010</v>
@@ -1056,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <v>1160.8135879999998</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -1213,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>1571.25496088</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1291,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>720.04207000000008</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1330,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>1149.9763</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -1369,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>770.27774999999997</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1408,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>700.26418000000001</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -1681,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>1477.8053103</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -1720,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>1451.97879827</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -1759,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>1477.8053103</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -1798,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>1912.7268050000002</v>
+        <v>1691.0302750000001</v>
       </c>
       <c r="J27" s="2">
         <v>6000</v>
       </c>
       <c r="K27" s="2">
-        <v>1912.73</v>
+        <v>1691.03</v>
       </c>
       <c r="L27" s="2">
         <v>6001127096</v>
@@ -1837,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <v>6239.9866650000004</v>
+        <v>5257.9808049999992</v>
       </c>
       <c r="J28" s="2">
         <v>20000</v>
       </c>
       <c r="K28" s="2">
-        <v>6240</v>
+        <v>5258</v>
       </c>
       <c r="L28" s="2">
         <v>60011303197</v>
@@ -1915,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>1443.35937625</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -1953,13 +1962,13 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>1804.6643999999997</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>6300</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>1812</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -1993,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <v>1571.25496088</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2110,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <v>1516.5927699999997</v>
+        <v>1367.5039400000001</v>
       </c>
       <c r="J35" s="2">
         <v>4000</v>
       </c>
       <c r="K35" s="2">
-        <v>1516.59</v>
+        <v>1367.5</v>
       </c>
       <c r="L35" s="2">
         <v>6203221609</v>
@@ -2149,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <v>5745.9794149999989</v>
+        <v>5094.9922649999999</v>
       </c>
       <c r="J36" s="2">
         <v>20000</v>
       </c>
       <c r="K36" s="2">
-        <v>5745.26</v>
+        <v>5095</v>
       </c>
       <c r="L36" s="2">
         <v>6203287151</v>
@@ -2188,13 +2197,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>2091</v>
+        <v>1790.7411570070001</v>
       </c>
       <c r="J37" s="2">
         <v>6000</v>
       </c>
       <c r="K37" s="2">
-        <v>2091.19</v>
+        <v>1890.97</v>
       </c>
       <c r="L37" s="2">
         <v>63053316307</v>
@@ -2227,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <v>7848.9886750000005</v>
+        <v>6886.9942350000001</v>
       </c>
       <c r="J38" s="2">
         <v>20000</v>
       </c>
       <c r="K38" s="2">
-        <v>7849</v>
+        <v>6887</v>
       </c>
       <c r="L38" s="2">
         <v>6305424198</v>
@@ -2266,13 +2275,13 @@
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <v>1507.994389</v>
+        <v>1318.9978009999998</v>
       </c>
       <c r="J39" s="2">
         <v>4000</v>
       </c>
       <c r="K39" s="2">
-        <v>1508</v>
+        <v>1319</v>
       </c>
       <c r="L39" s="2">
         <v>6407711228</v>
@@ -2305,13 +2314,13 @@
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <v>6367.9862950000006</v>
+        <v>5269.9876899999999</v>
       </c>
       <c r="J40" s="2">
         <v>20000</v>
       </c>
       <c r="K40" s="2">
-        <v>6368</v>
+        <v>5270</v>
       </c>
       <c r="L40" s="2">
         <v>64075395879</v>
@@ -2344,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <v>6367.9769449999994</v>
+        <v>5269.8807699999998</v>
       </c>
       <c r="J41" s="2">
         <v>20000</v>
       </c>
       <c r="K41" s="2">
-        <v>6367.98</v>
+        <v>5269.88</v>
       </c>
       <c r="L41" s="2">
         <v>6407470721</v>
@@ -2383,13 +2392,13 @@
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>1419.9997349999999</v>
+        <v>1269.999368</v>
       </c>
       <c r="J42" s="2">
         <v>4000</v>
       </c>
       <c r="K42" s="2">
-        <v>1420</v>
+        <v>1270</v>
       </c>
       <c r="L42" s="2">
         <v>6102518541</v>
@@ -2422,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>1495.527605</v>
+        <v>1327.231675</v>
       </c>
       <c r="J43" s="2">
         <v>4000</v>
       </c>
       <c r="K43" s="2">
-        <v>1495.53</v>
+        <v>1327.23</v>
       </c>
       <c r="L43" s="2">
         <v>6001338247</v>
@@ -2461,13 +2470,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>1495.997239</v>
+        <v>1327.9940079999999</v>
       </c>
       <c r="J44" s="2">
         <v>4000</v>
       </c>
       <c r="K44" s="2">
-        <v>1496</v>
+        <v>1328</v>
       </c>
       <c r="L44" s="2">
         <v>6001287448</v>
@@ -2500,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>1507.9074449999998</v>
+        <v>1318.5720350000001</v>
       </c>
       <c r="J45" s="2">
         <v>4000</v>
       </c>
       <c r="K45" s="2">
-        <v>1507.91</v>
+        <v>1318.57</v>
       </c>
       <c r="L45" s="2">
         <v>6407229169</v>
@@ -2539,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>1516.9975699999998</v>
+        <v>1367.9970920000001</v>
       </c>
       <c r="J46" s="2">
         <v>4000</v>
       </c>
       <c r="K46" s="2">
-        <v>1517</v>
+        <v>1368</v>
       </c>
       <c r="L46" s="2">
         <v>6203303133</v>
@@ -2578,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>1645.188435</v>
+        <v>1506.166475</v>
       </c>
       <c r="J47" s="2">
         <v>4000</v>
       </c>
       <c r="K47" s="2">
-        <v>1645.19</v>
+        <v>1506.17</v>
       </c>
       <c r="L47" s="2">
         <v>6305990815</v>
@@ -2617,13 +2626,13 @@
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>1645.9968029999998</v>
+        <v>1506.9968430000001</v>
       </c>
       <c r="J48" s="2">
         <v>4000</v>
       </c>
       <c r="K48" s="2">
-        <v>1646</v>
+        <v>1507</v>
       </c>
       <c r="L48" s="2">
         <v>6305364255</v>
@@ -2696,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>1918.1917699999999</v>
+        <v>1708.3037400000003</v>
       </c>
       <c r="J50" s="2">
         <v>6000</v>
       </c>
       <c r="K50" s="2">
-        <v>1918.19</v>
+        <v>1708.3</v>
       </c>
       <c r="L50" s="2">
         <v>6203163853</v>
@@ -2735,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>1923.9054450000001</v>
+        <v>1659.9702350000002</v>
       </c>
       <c r="J51" s="2">
         <v>6000</v>
       </c>
       <c r="K51" s="2">
-        <v>1923.91</v>
+        <v>1659.97</v>
       </c>
       <c r="L51" s="2">
         <v>6407371922</v>
@@ -2852,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <v>5745.2551749999993</v>
+        <v>5094.1879449999988</v>
       </c>
       <c r="J54" s="2">
         <v>20000</v>
       </c>
       <c r="K54" s="2">
-        <v>5745.26</v>
+        <v>5094.1899999999996</v>
       </c>
       <c r="L54" s="2">
         <v>6203272973</v>
@@ -2930,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <v>6239.2832699999999</v>
+        <v>5257.6243499999991</v>
       </c>
       <c r="J56" s="2">
         <v>20000</v>
       </c>
       <c r="K56" s="2">
-        <v>6239.28</v>
+        <v>5257.62</v>
       </c>
       <c r="L56" s="2">
         <v>6001481897</v>
@@ -2969,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <v>6367.9769449999994</v>
+        <v>5269.8807699999998</v>
       </c>
       <c r="J57" s="2">
         <v>20000</v>
       </c>
       <c r="K57" s="2">
-        <v>6367.98</v>
+        <v>5269.88</v>
       </c>
       <c r="L57" s="2">
         <v>6407470721</v>
@@ -3008,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <v>7848.0875750089999</v>
+        <v>6887.3767559849994</v>
       </c>
       <c r="J58" s="2">
         <v>20000</v>
       </c>
       <c r="K58" s="2">
-        <v>7848.09</v>
+        <v>6887.38</v>
       </c>
       <c r="L58" s="2">
         <v>6305803055</v>
@@ -3101,26 +3110,146 @@
         <v>59</v>
       </c>
     </row>
+    <row r="61" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1959.3908074963042</v>
+      </c>
+      <c r="J61" s="2">
+        <v>4600</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1960</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1668.5810809481541</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2322.4011982203369</v>
+      </c>
+      <c r="J62" s="2">
+        <v>6600</v>
+      </c>
+      <c r="K62" s="2">
+        <v>2356</v>
+      </c>
+      <c r="L62" s="2">
+        <v>2507.2687268194632</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="26" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2355.4012707204965</v>
+      </c>
+      <c r="J63" s="2">
+        <v>6600</v>
+      </c>
+      <c r="K63" s="2">
+        <v>2356</v>
+      </c>
+      <c r="L63" s="2">
+        <v>24489.602623837203</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G60" xr:uid="{2AFBA3A0-0D16-F442-AD0A-55593D4B6729}">
       <formula1>INDIRECT(M2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B60 A36" xr:uid="{F941837D-FEEF-414E-B3E0-E5690C39D502}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B63 A36" xr:uid="{F941837D-FEEF-414E-B3E0-E5690C39D502}">
       <formula1>INDIRECT(XFD2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A35 A37:A60" xr:uid="{A7CFD096-E964-3D47-915F-AA59B979C89A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A35 A37:A63" xr:uid="{A7CFD096-E964-3D47-915F-AA59B979C89A}">
       <formula1>"AC,AG,CE,CI,EA,EX,IE,PO,SA,TR,UN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F60" xr:uid="{41B37BBA-310E-C940-8E5B-6ED91AD2487B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F63" xr:uid="{41B37BBA-310E-C940-8E5B-6ED91AD2487B}">
       <formula1>"Electricity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C60" xr:uid="{839DDA94-13CD-B04B-90C1-01021C07A261}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C63" xr:uid="{839DDA94-13CD-B04B-90C1-01021C07A261}">
       <formula1>"RES,BUS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{655710B2-4A3B-4149-9CE9-85A824C36362}">
       <formula1>"Average Usage,Low - 5 kWh,Medium - 10 kWh,High - 20 kWh,Low - 6 kWh,Medium - 17 kWh,High - 44 kWh,Low - 11 kWh,Medium - 30 kWh,High - 80 kWh,Medium - 14 kWh,High - 34 kWh,Low - 4 kWh,Medium - 16 kWh,High - 46 kWh,Custom"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61:G63" xr:uid="{2C5938B5-765D-6A45-8BD3-BFC6778E7C22}">
+      <formula1>INDIRECT(R61)</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
